--- a/biology/Botanique/Cephalozia_lunulifolia/Cephalozia_lunulifolia.xlsx
+++ b/biology/Botanique/Cephalozia_lunulifolia/Cephalozia_lunulifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cephalozia lunulifolia est une espèce de Marchantiophytes (hépatiques) de la famille des Cephaloziaceae, aux feuilles minuscules et bilobées (à leur extrémité).
 Cette espèce qui a été décrite en 1835 pousse typiquement sur le bois pourris (bois mort, buches, souches);
@@ -512,9 +524,11 @@
           <t>État des populations, menaces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme toutes les plantes et organismes associées aux vieux bois-morts, cette espèce est menacée. Elle a par exemple récemment disparu du Nord-Pas-de-Calais et de Normandie[1]. Elle semble être devenue rare ou a déjà disparu dans une grande partie de son aire naturelle de répartition.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme toutes les plantes et organismes associées aux vieux bois-morts, cette espèce est menacée. Elle a par exemple récemment disparu du Nord-Pas-de-Calais et de Normandie. Elle semble être devenue rare ou a déjà disparu dans une grande partie de son aire naturelle de répartition.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Vue en miscroscopie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Cephalozia lunulifolia (microscopie)
